--- a/data/trans_orig/P6701-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B4342F-5215-4657-BCB7-874237C105EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{164127C3-008F-4416-8C22-1D65E1D92361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A6C7A63-E702-4685-A1F9-EFC8AF9AB8D9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0213DF29-FB4C-4D9A-A621-20B95039D0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="523">
   <si>
     <t>Población según si tienen que trabajar muy rápido en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -76,1528 +76,1537 @@
     <t>8,48%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
     <t>15,2%</t>
   </si>
   <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
   </si>
   <si>
     <t>22,93%</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
     <t>13,72%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>30,03%</t>
   </si>
   <si>
-    <t>21,5%</t>
-  </si>
-  <si>
     <t>40,01%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
     <t>26,35%</t>
   </si>
   <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>39,0%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>19,93%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>3,93%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
     <t>30,79%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>31,04%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
   </si>
   <si>
     <t>22,34%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
+    <t>27,64%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>28,7%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
   </si>
   <si>
     <t>13,67%</t>
   </si>
   <si>
-    <t>16,49%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62329604-4B36-4D9C-AB77-B83AFB950153}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669BB81D-F8D1-46C1-93AF-9D4DABB6679A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2630,7 +2639,7 @@
         <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2654,13 @@
         <v>191173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -2660,13 +2669,13 @@
         <v>125961</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>300</v>
@@ -2675,13 +2684,13 @@
         <v>317135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2737,7 +2746,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2749,13 +2758,13 @@
         <v>34191</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -2764,13 +2773,13 @@
         <v>28772</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -2779,13 +2788,13 @@
         <v>62963</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,13 +2809,13 @@
         <v>40039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2815,13 +2824,13 @@
         <v>33234</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -2830,13 +2839,13 @@
         <v>73273</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2860,13 @@
         <v>123742</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -2866,13 +2875,13 @@
         <v>93739</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>193</v>
@@ -2881,13 +2890,13 @@
         <v>217481</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2911,13 @@
         <v>72477</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -2917,13 +2926,13 @@
         <v>37238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>98</v>
@@ -2932,13 +2941,13 @@
         <v>109715</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2962,13 @@
         <v>45808</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -2968,13 +2977,13 @@
         <v>41914</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -2983,13 +2992,13 @@
         <v>87722</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3066,13 @@
         <v>126379</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -3072,13 +3081,13 @@
         <v>114595</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>219</v>
@@ -3090,10 +3099,10 @@
         <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3117,13 @@
         <v>152166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -3123,13 +3132,13 @@
         <v>106567</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>239</v>
@@ -3138,13 +3147,13 @@
         <v>258733</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3168,13 @@
         <v>534131</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>301</v>
@@ -3174,28 +3183,28 @@
         <v>325493</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>805</v>
       </c>
       <c r="N24" s="7">
-        <v>859623</v>
+        <v>859624</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3219,13 @@
         <v>338339</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>189</v>
@@ -3225,13 +3234,13 @@
         <v>206378</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>507</v>
@@ -3240,13 +3249,13 @@
         <v>544718</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3270,13 @@
         <v>265785</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>182</v>
@@ -3276,28 +3285,28 @@
         <v>194678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>435</v>
       </c>
       <c r="N26" s="7">
-        <v>460462</v>
+        <v>460463</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,7 +3348,7 @@
         <v>2205</v>
       </c>
       <c r="N27" s="7">
-        <v>2364511</v>
+        <v>2364512</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3353,7 +3362,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3372,7 +3381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1365F7AC-CAC0-4D96-85B3-8A66D329CF49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D339DC6-5EE3-418F-BE07-B8A7BD0073DC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3389,7 +3398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3496,13 +3505,13 @@
         <v>8506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3511,13 +3520,13 @@
         <v>10200</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3526,13 +3535,13 @@
         <v>18705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3556,13 @@
         <v>10243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3562,13 +3571,13 @@
         <v>7708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -3577,13 +3586,13 @@
         <v>17950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,13 +3607,13 @@
         <v>55832</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -3613,13 +3622,13 @@
         <v>25750</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -3628,13 +3637,13 @@
         <v>81582</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3649,13 +3658,13 @@
         <v>39245</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -3664,13 +3673,13 @@
         <v>11932</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3679,13 +3688,13 @@
         <v>51178</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3700,13 +3709,13 @@
         <v>29292</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3715,13 +3724,13 @@
         <v>16497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -3730,13 +3739,13 @@
         <v>45789</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3804,13 +3813,13 @@
         <v>60097</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3819,13 +3828,13 @@
         <v>47935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -3834,13 +3843,13 @@
         <v>108032</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3864,13 @@
         <v>98355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -3870,13 +3879,13 @@
         <v>76118</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M11" s="7">
         <v>168</v>
@@ -3885,13 +3894,13 @@
         <v>174473</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3915,13 @@
         <v>305168</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>255</v>
+        <v>130</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
         <v>248</v>
@@ -3921,13 +3930,13 @@
         <v>251766</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>535</v>
@@ -3936,13 +3945,13 @@
         <v>556933</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>168</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,13 +3966,13 @@
         <v>285571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>160</v>
@@ -3972,13 +3981,13 @@
         <v>163686</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
@@ -3987,13 +3996,13 @@
         <v>449257</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4017,13 @@
         <v>176006</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -4023,13 +4032,13 @@
         <v>113270</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>267</v>
@@ -4038,13 +4047,13 @@
         <v>289276</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,7 +4109,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4112,13 +4121,13 @@
         <v>28126</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4127,13 +4136,13 @@
         <v>28053</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4142,13 +4151,13 @@
         <v>56179</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,13 +4172,13 @@
         <v>60539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -4178,13 +4187,13 @@
         <v>50358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -4193,13 +4202,13 @@
         <v>110896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>124</v>
+        <v>298</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4223,13 @@
         <v>143156</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
@@ -4229,13 +4238,13 @@
         <v>113767</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M18" s="7">
         <v>243</v>
@@ -4244,13 +4253,13 @@
         <v>256923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4274,13 @@
         <v>68184</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -4280,13 +4289,13 @@
         <v>61414</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -4295,13 +4304,13 @@
         <v>129598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4325,13 @@
         <v>50604</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -4331,13 +4340,13 @@
         <v>54861</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -4346,13 +4355,13 @@
         <v>105465</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4429,13 @@
         <v>96729</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -4435,13 +4444,13 @@
         <v>86188</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -4450,13 +4459,13 @@
         <v>182917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4480,13 @@
         <v>169136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -4486,13 +4495,13 @@
         <v>134183</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>248</v>
+        <v>55</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M23" s="7">
         <v>291</v>
@@ -4501,13 +4510,13 @@
         <v>303319</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4531,13 @@
         <v>504156</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>335</v>
+        <v>238</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H24" s="7">
         <v>385</v>
@@ -4537,13 +4546,13 @@
         <v>391283</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>258</v>
+        <v>343</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M24" s="7">
         <v>857</v>
@@ -4552,13 +4561,13 @@
         <v>895439</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4582,13 @@
         <v>393001</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>231</v>
@@ -4588,13 +4597,13 @@
         <v>237032</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>96</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M25" s="7">
         <v>602</v>
@@ -4603,13 +4612,13 @@
         <v>630033</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4633,13 @@
         <v>255902</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H26" s="7">
         <v>176</v>
@@ -4639,13 +4648,13 @@
         <v>184628</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M26" s="7">
         <v>406</v>
@@ -4654,13 +4663,13 @@
         <v>440530</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,7 +4725,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4735,7 +4744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDCC215-BD5A-4FB9-9649-BA330F730087}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287066D3-855E-4511-AB3D-2832051E5143}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4752,7 +4761,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4859,13 +4868,13 @@
         <v>4308</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4874,13 +4883,13 @@
         <v>1515</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4889,13 +4898,13 @@
         <v>5823</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4919,13 @@
         <v>900</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>144</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4925,13 +4934,13 @@
         <v>2618</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4940,13 +4949,13 @@
         <v>3518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4970,13 @@
         <v>18231</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4976,13 +4985,13 @@
         <v>6571</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -4991,13 +5000,13 @@
         <v>24802</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,13 +5021,13 @@
         <v>6965</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5027,13 +5036,13 @@
         <v>5311</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5042,13 +5051,13 @@
         <v>12276</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5063,13 +5072,13 @@
         <v>2984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -5078,13 +5087,13 @@
         <v>4296</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -5093,13 +5102,13 @@
         <v>7279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5167,13 +5176,13 @@
         <v>80302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>407</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -5182,13 +5191,13 @@
         <v>22397</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -5197,13 +5206,13 @@
         <v>102699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5227,13 @@
         <v>34069</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -5233,13 +5242,13 @@
         <v>24525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>417</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -5248,13 +5257,13 @@
         <v>58593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5278,13 @@
         <v>94948</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="H12" s="7">
         <v>108</v>
@@ -5284,13 +5293,13 @@
         <v>76344</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>265</v>
+        <v>427</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="M12" s="7">
         <v>202</v>
@@ -5299,13 +5308,13 @@
         <v>171292</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>393</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5320,13 +5329,13 @@
         <v>82441</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -5335,13 +5344,13 @@
         <v>77022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>430</v>
+        <v>176</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -5350,13 +5359,13 @@
         <v>159464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>433</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5371,13 +5380,13 @@
         <v>39188</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>436</v>
+        <v>119</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5386,13 +5395,13 @@
         <v>53012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>441</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -5401,13 +5410,13 @@
         <v>92199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,7 +5472,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5475,13 +5484,13 @@
         <v>44950</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -5490,13 +5499,13 @@
         <v>33283</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>446</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -5505,13 +5514,13 @@
         <v>78233</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5526,13 +5535,13 @@
         <v>13986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5541,13 +5550,13 @@
         <v>19875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5556,13 +5565,13 @@
         <v>33861</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,13 +5586,13 @@
         <v>39763</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>53</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -5592,13 +5601,13 @@
         <v>38724</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M18" s="7">
         <v>92</v>
@@ -5607,13 +5616,13 @@
         <v>78487</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5637,13 @@
         <v>21561</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -5643,13 +5652,13 @@
         <v>13203</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -5658,13 +5667,13 @@
         <v>34764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>473</v>
+        <v>247</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5688,13 @@
         <v>12159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -5694,13 +5703,13 @@
         <v>9279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -5709,13 +5718,13 @@
         <v>21438</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>482</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,10 +5795,10 @@
         <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -5798,13 +5807,13 @@
         <v>57195</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -5813,13 +5822,13 @@
         <v>186755</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,10 +5846,10 @@
         <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>63</v>
+        <v>492</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>60</v>
@@ -5849,13 +5858,13 @@
         <v>47018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>102</v>
@@ -5864,13 +5873,13 @@
         <v>95972</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,13 +5894,13 @@
         <v>152943</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H24" s="7">
         <v>174</v>
@@ -5900,13 +5909,13 @@
         <v>121639</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M24" s="7">
         <v>321</v>
@@ -5915,13 +5924,13 @@
         <v>274582</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,13 +5945,13 @@
         <v>110967</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>508</v>
+        <v>313</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H25" s="7">
         <v>123</v>
@@ -5951,13 +5960,13 @@
         <v>95536</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>512</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
@@ -5966,13 +5975,13 @@
         <v>206503</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>56</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +5996,13 @@
         <v>54330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
@@ -6005,10 +6014,10 @@
         <v>57</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M26" s="7">
         <v>121</v>
@@ -6017,13 +6026,13 @@
         <v>120917</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>521</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,7 +6088,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6701-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{164127C3-008F-4416-8C22-1D65E1D92361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1290715D-7332-401F-8DE1-BB39A0C7C7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0213DF29-FB4C-4D9A-A621-20B95039D0A5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43A991ED-CD18-4D98-ACB3-CC0A01CAF5AF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="516">
   <si>
     <t>Población según si tienen que trabajar muy rápido en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -76,1500 +76,1488 @@
     <t>8,48%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
   </si>
   <si>
     <t>21,59%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
     <t>10,67%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>21,98%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>13,05%</t>
   </si>
   <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
     <t>27,64%</t>
   </si>
   <si>
@@ -1594,19 +1582,10 @@
     <t>6,89%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
     <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669BB81D-F8D1-46C1-93AF-9D4DABB6679A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7867FA92-F9E8-4524-B51D-587DADA52CCC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2534,10 +2513,10 @@
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,13 +2531,13 @@
         <v>328399</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>176</v>
@@ -2567,13 +2546,13 @@
         <v>186921</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -2582,13 +2561,13 @@
         <v>515320</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2603,13 +2582,13 @@
         <v>226980</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -2618,13 +2597,13 @@
         <v>149898</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>355</v>
@@ -2633,13 +2612,13 @@
         <v>376878</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2633,13 @@
         <v>191173</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -2669,13 +2648,13 @@
         <v>125961</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>300</v>
@@ -2684,13 +2663,13 @@
         <v>317135</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,7 +2725,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2758,13 +2737,13 @@
         <v>34191</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -2773,13 +2752,13 @@
         <v>28772</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>57</v>
@@ -2788,13 +2767,13 @@
         <v>62963</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2788,13 @@
         <v>40039</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -2824,13 +2803,13 @@
         <v>33234</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -2839,13 +2818,13 @@
         <v>73273</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2839,13 @@
         <v>123742</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>82</v>
@@ -2875,13 +2854,13 @@
         <v>93739</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>193</v>
@@ -2890,13 +2869,13 @@
         <v>217481</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2890,13 @@
         <v>72477</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -2926,13 +2905,13 @@
         <v>37238</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>98</v>
@@ -2941,13 +2920,13 @@
         <v>109715</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2941,13 @@
         <v>45808</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -2977,13 +2956,13 @@
         <v>41914</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -2992,13 +2971,13 @@
         <v>87722</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3045,13 @@
         <v>126379</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>103</v>
@@ -3081,13 +3060,13 @@
         <v>114595</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>219</v>
@@ -3099,10 +3078,10 @@
         <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3096,13 @@
         <v>152166</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -3132,13 +3111,13 @@
         <v>106567</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M23" s="7">
         <v>239</v>
@@ -3147,13 +3126,13 @@
         <v>258733</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3147,13 @@
         <v>534131</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>301</v>
@@ -3183,13 +3162,13 @@
         <v>325493</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>805</v>
@@ -3198,13 +3177,13 @@
         <v>859624</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,13 +3198,13 @@
         <v>338339</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>189</v>
@@ -3234,13 +3213,13 @@
         <v>206378</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>507</v>
@@ -3249,13 +3228,13 @@
         <v>544718</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3249,13 @@
         <v>265785</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H26" s="7">
         <v>182</v>
@@ -3285,13 +3264,13 @@
         <v>194678</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>435</v>
@@ -3300,13 +3279,13 @@
         <v>460463</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,7 +3341,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D339DC6-5EE3-418F-BE07-B8A7BD0073DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CA1C5F-69C1-4C6D-8772-7665D20764D7}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3398,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3505,13 +3484,13 @@
         <v>8506</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3520,13 +3499,13 @@
         <v>10200</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3535,13 +3514,13 @@
         <v>18705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3535,13 @@
         <v>10243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3571,13 +3550,13 @@
         <v>7708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -3586,13 +3565,13 @@
         <v>17950</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3586,13 @@
         <v>55832</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -3622,13 +3601,13 @@
         <v>25750</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>79</v>
@@ -3637,13 +3616,13 @@
         <v>81582</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3658,13 +3637,13 @@
         <v>39245</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -3673,13 +3652,13 @@
         <v>11932</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -3688,13 +3667,13 @@
         <v>51178</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3688,13 @@
         <v>29292</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -3724,13 +3703,13 @@
         <v>16497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -3739,13 +3718,13 @@
         <v>45789</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3792,13 @@
         <v>60097</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3828,13 +3807,13 @@
         <v>47935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -3843,13 +3822,13 @@
         <v>108032</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3843,13 @@
         <v>98355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -3879,13 +3858,13 @@
         <v>76118</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>168</v>
@@ -3894,13 +3873,13 @@
         <v>174473</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,13 +3894,13 @@
         <v>305168</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>248</v>
@@ -3930,13 +3909,13 @@
         <v>251766</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>535</v>
@@ -3945,13 +3924,13 @@
         <v>556933</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3945,13 @@
         <v>285571</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H13" s="7">
         <v>160</v>
@@ -3981,13 +3960,13 @@
         <v>163686</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
@@ -3996,13 +3975,13 @@
         <v>449257</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +3996,13 @@
         <v>176006</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -4032,13 +4011,13 @@
         <v>113270</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>267</v>
@@ -4047,13 +4026,13 @@
         <v>289276</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,7 +4088,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4121,13 +4100,13 @@
         <v>28126</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4136,13 +4115,13 @@
         <v>28053</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4151,13 +4130,13 @@
         <v>56179</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4151,13 @@
         <v>60539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -4187,13 +4166,13 @@
         <v>50358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -4202,13 +4181,13 @@
         <v>110896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>299</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4202,13 @@
         <v>143156</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
@@ -4238,13 +4217,13 @@
         <v>113767</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>243</v>
@@ -4253,13 +4232,13 @@
         <v>256923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4253,13 @@
         <v>68184</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -4289,13 +4268,13 @@
         <v>61414</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -4304,13 +4283,13 @@
         <v>129598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,13 +4304,13 @@
         <v>50604</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>54</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -4340,13 +4319,13 @@
         <v>54861</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>320</v>
+        <v>193</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -4355,13 +4334,13 @@
         <v>105465</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4408,13 @@
         <v>96729</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -4444,13 +4423,13 @@
         <v>86188</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -4459,13 +4438,13 @@
         <v>182917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4459,13 @@
         <v>169136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -4495,13 +4474,13 @@
         <v>134183</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>291</v>
@@ -4510,13 +4489,13 @@
         <v>303319</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4510,13 @@
         <v>504156</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H24" s="7">
         <v>385</v>
@@ -4546,13 +4525,13 @@
         <v>391283</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M24" s="7">
         <v>857</v>
@@ -4561,13 +4540,13 @@
         <v>895439</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4561,13 @@
         <v>393001</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H25" s="7">
         <v>231</v>
@@ -4597,13 +4576,13 @@
         <v>237032</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>96</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>46</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>602</v>
@@ -4612,13 +4591,13 @@
         <v>630033</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4612,13 @@
         <v>255902</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H26" s="7">
         <v>176</v>
@@ -4648,13 +4627,13 @@
         <v>184628</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>406</v>
@@ -4663,13 +4642,13 @@
         <v>440530</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,7 +4704,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287066D3-855E-4511-AB3D-2832051E5143}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB5D058-19A1-4247-B9F8-1797DECF18EF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4761,7 +4740,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4868,13 +4847,13 @@
         <v>4308</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>364</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4883,13 +4862,13 @@
         <v>1515</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4898,13 +4877,13 @@
         <v>5823</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4898,13 @@
         <v>900</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4934,13 +4913,13 @@
         <v>2618</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4949,13 +4928,13 @@
         <v>3518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4949,13 @@
         <v>18231</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4985,13 +4964,13 @@
         <v>6571</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -5000,13 +4979,13 @@
         <v>24802</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5000,13 @@
         <v>6965</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5036,13 +5015,13 @@
         <v>5311</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5051,13 +5030,13 @@
         <v>12276</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5072,13 +5051,13 @@
         <v>2984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -5087,13 +5066,13 @@
         <v>4296</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -5102,13 +5081,13 @@
         <v>7279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5155,13 @@
         <v>80302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
@@ -5191,13 +5170,13 @@
         <v>22397</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -5206,13 +5185,13 @@
         <v>102699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5206,13 @@
         <v>34069</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -5242,13 +5221,13 @@
         <v>24525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -5257,13 +5236,13 @@
         <v>58593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5257,13 @@
         <v>94948</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H12" s="7">
         <v>108</v>
@@ -5293,13 +5272,13 @@
         <v>76344</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>202</v>
@@ -5308,13 +5287,13 @@
         <v>171292</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>177</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5308,13 @@
         <v>82441</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -5344,13 +5323,13 @@
         <v>77022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>434</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -5359,13 +5338,13 @@
         <v>159464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,13 +5359,13 @@
         <v>39188</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>119</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5395,13 +5374,13 @@
         <v>53012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>440</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -5410,13 +5389,13 @@
         <v>92199</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>444</v>
+        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,7 +5451,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5484,13 +5463,13 @@
         <v>44950</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -5499,13 +5478,13 @@
         <v>33283</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>446</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -5514,13 +5493,13 @@
         <v>78233</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5514,13 @@
         <v>13986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>135</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5550,13 +5529,13 @@
         <v>19875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5565,13 +5544,13 @@
         <v>33861</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5565,13 @@
         <v>39763</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>53</v>
+        <v>458</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -5601,13 +5580,13 @@
         <v>38724</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M18" s="7">
         <v>92</v>
@@ -5616,13 +5595,13 @@
         <v>78487</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5616,13 @@
         <v>21561</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -5652,13 +5631,13 @@
         <v>13203</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -5667,13 +5646,13 @@
         <v>34764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5667,13 @@
         <v>12159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -5703,13 +5682,13 @@
         <v>9279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -5718,13 +5697,13 @@
         <v>21438</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>237</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5771,13 @@
         <v>129560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -5807,13 +5786,13 @@
         <v>57195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -5822,13 +5801,13 @@
         <v>186755</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5822,13 @@
         <v>48954</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>493</v>
+        <v>327</v>
       </c>
       <c r="H23" s="7">
         <v>60</v>
@@ -5858,13 +5837,13 @@
         <v>47018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M23" s="7">
         <v>102</v>
@@ -5873,13 +5852,13 @@
         <v>95972</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5873,13 @@
         <v>152943</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H24" s="7">
         <v>174</v>
@@ -5909,13 +5888,13 @@
         <v>121639</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="M24" s="7">
         <v>321</v>
@@ -5924,13 +5903,13 @@
         <v>274582</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5924,13 @@
         <v>110967</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>313</v>
+        <v>505</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H25" s="7">
         <v>123</v>
@@ -5960,13 +5939,13 @@
         <v>95536</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
@@ -5975,13 +5954,13 @@
         <v>206503</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5996,13 +5975,13 @@
         <v>54330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>518</v>
+        <v>29</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
@@ -6014,10 +5993,10 @@
         <v>57</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>493</v>
+        <v>327</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M26" s="7">
         <v>121</v>
@@ -6026,13 +6005,13 @@
         <v>120917</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>520</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>522</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,7 +6067,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6701-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1290715D-7332-401F-8DE1-BB39A0C7C7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46112FE2-4B8E-423E-9C80-67EE4DC28C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43A991ED-CD18-4D98-ACB3-CC0A01CAF5AF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{304A35DB-EF28-47CF-B28A-2896F572CC97}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="520">
   <si>
     <t>Población según si tienen que trabajar muy rápido en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -76,1516 +76,1528 @@
     <t>8,48%</t>
   </si>
   <si>
-    <t>4,94%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>12,12%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>13,67%</t>
   </si>
   <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
+    <t>16,49%</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +2009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7867FA92-F9E8-4524-B51D-587DADA52CCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B062710-8AA8-4CFF-B4F2-DA9F8861FBAD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2513,10 +2525,10 @@
         <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,13 +2543,13 @@
         <v>328399</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>176</v>
@@ -2546,13 +2558,13 @@
         <v>186921</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -2561,13 +2573,13 @@
         <v>515320</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2594,13 @@
         <v>226980</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -2597,13 +2609,13 @@
         <v>149898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>355</v>
@@ -2612,13 +2624,13 @@
         <v>376878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,10 +3090,10 @@
         <v>71</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3108,13 @@
         <v>152166</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>100</v>
@@ -3111,13 +3123,13 @@
         <v>106567</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>239</v>
@@ -3126,13 +3138,13 @@
         <v>258733</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,13 +3159,13 @@
         <v>534131</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>301</v>
@@ -3162,28 +3174,28 @@
         <v>325493</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>805</v>
       </c>
       <c r="N24" s="7">
-        <v>859624</v>
+        <v>859623</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,10 +3210,10 @@
         <v>338339</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>179</v>
@@ -3231,10 +3243,10 @@
         <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3249,13 +3261,13 @@
         <v>265785</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>182</v>
@@ -3264,28 +3276,28 @@
         <v>194678</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>435</v>
       </c>
       <c r="N26" s="7">
-        <v>460463</v>
+        <v>460462</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,7 +3339,7 @@
         <v>2205</v>
       </c>
       <c r="N27" s="7">
-        <v>2364512</v>
+        <v>2364511</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -3341,7 +3353,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CA1C5F-69C1-4C6D-8772-7665D20764D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16139E7E-2139-4666-888C-9EB5C2C0F899}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3377,7 +3389,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3484,13 +3496,13 @@
         <v>8506</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -3502,10 +3514,10 @@
         <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -3514,13 +3526,13 @@
         <v>18705</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3547,13 @@
         <v>10243</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3550,13 +3562,13 @@
         <v>7708</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>18</v>
@@ -3565,13 +3577,13 @@
         <v>17950</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,10 +3718,10 @@
         <v>233</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>42</v>
@@ -3718,13 +3730,13 @@
         <v>45789</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3804,13 @@
         <v>60097</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3807,13 +3819,13 @@
         <v>47935</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>102</v>
@@ -3822,13 +3834,13 @@
         <v>108032</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3855,13 @@
         <v>98355</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H11" s="7">
         <v>74</v>
@@ -3858,13 +3870,13 @@
         <v>76118</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M11" s="7">
         <v>168</v>
@@ -3873,13 +3885,13 @@
         <v>174473</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3906,13 @@
         <v>305168</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>248</v>
@@ -3909,13 +3921,13 @@
         <v>251766</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M12" s="7">
         <v>535</v>
@@ -3924,13 +3936,13 @@
         <v>556933</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>264</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3957,13 @@
         <v>285571</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>160</v>
@@ -3960,13 +3972,13 @@
         <v>163686</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>431</v>
@@ -3975,13 +3987,13 @@
         <v>449257</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,13 +4008,13 @@
         <v>176006</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -4011,13 +4023,13 @@
         <v>113270</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>267</v>
@@ -4026,13 +4038,13 @@
         <v>289276</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4112,13 @@
         <v>28126</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4118,10 +4130,10 @@
         <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -4133,10 +4145,10 @@
         <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4163,13 @@
         <v>60539</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>49</v>
@@ -4166,13 +4178,13 @@
         <v>50358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>105</v>
@@ -4181,13 +4193,13 @@
         <v>110896</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>124</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4214,13 @@
         <v>143156</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>111</v>
@@ -4217,13 +4229,13 @@
         <v>113767</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>243</v>
@@ -4232,13 +4244,13 @@
         <v>256923</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4265,13 @@
         <v>68184</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -4271,10 +4283,10 @@
         <v>140</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -4283,13 +4295,13 @@
         <v>129598</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4316,13 @@
         <v>50604</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>53</v>
@@ -4319,13 +4331,13 @@
         <v>54861</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>193</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -4334,13 +4346,13 @@
         <v>105465</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4420,13 @@
         <v>96729</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H22" s="7">
         <v>86</v>
@@ -4423,13 +4435,13 @@
         <v>86188</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -4438,13 +4450,13 @@
         <v>182917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4471,13 @@
         <v>169136</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -4474,13 +4486,13 @@
         <v>134183</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M23" s="7">
         <v>291</v>
@@ -4489,13 +4501,13 @@
         <v>303319</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4522,13 @@
         <v>504156</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H24" s="7">
         <v>385</v>
@@ -4525,10 +4537,10 @@
         <v>391283</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>338</v>
@@ -4704,7 +4716,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4723,7 +4735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB5D058-19A1-4247-B9F8-1797DECF18EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4B95FE-DD3D-48C5-9BCE-F3EBD34447EB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4847,13 +4859,13 @@
         <v>4308</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>361</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4862,13 +4874,13 @@
         <v>1515</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -4877,13 +4889,13 @@
         <v>5823</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4910,13 @@
         <v>900</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>143</v>
+        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -4913,13 +4925,13 @@
         <v>2618</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -4928,13 +4940,13 @@
         <v>3518</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4961,13 @@
         <v>18231</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -4964,13 +4976,13 @@
         <v>6571</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -4979,13 +4991,13 @@
         <v>24802</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,10 +5015,10 @@
         <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>385</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5015,13 +5027,13 @@
         <v>5311</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -5030,13 +5042,13 @@
         <v>12276</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5063,13 @@
         <v>2984</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -5066,13 +5078,13 @@
         <v>4296</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -5081,13 +5093,13 @@
         <v>7279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,10 +5167,10 @@
         <v>80302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>403</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>404</v>
@@ -5176,7 +5188,7 @@
         <v>406</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -5185,13 +5197,13 @@
         <v>102699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5218,13 @@
         <v>34069</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
@@ -5221,7 +5233,7 @@
         <v>24525</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>413</v>
+        <v>166</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>414</v>
@@ -5260,10 +5272,10 @@
         <v>419</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H12" s="7">
         <v>108</v>
@@ -5272,13 +5284,13 @@
         <v>76344</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>202</v>
@@ -5287,13 +5299,13 @@
         <v>171292</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,13 +5320,13 @@
         <v>82441</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -5323,13 +5335,13 @@
         <v>77022</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>428</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>430</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -5338,13 +5350,13 @@
         <v>159464</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,13 +5371,13 @@
         <v>39188</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -5374,13 +5386,13 @@
         <v>53012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>437</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -5389,10 +5401,10 @@
         <v>92199</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>441</v>
@@ -5481,7 +5493,7 @@
         <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>446</v>
@@ -5514,13 +5526,13 @@
         <v>13986</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>451</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -5529,13 +5541,13 @@
         <v>19875</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -5631,13 +5643,13 @@
         <v>13203</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -5646,13 +5658,13 @@
         <v>34764</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5679,13 @@
         <v>12159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -5682,13 +5694,13 @@
         <v>9279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -5697,13 +5709,13 @@
         <v>21438</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5783,13 @@
         <v>129560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>315</v>
+        <v>484</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
@@ -5786,13 +5798,13 @@
         <v>57195</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
@@ -5801,13 +5813,13 @@
         <v>186755</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5834,13 @@
         <v>48954</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>489</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>327</v>
+        <v>492</v>
       </c>
       <c r="H23" s="7">
         <v>60</v>
@@ -5837,13 +5849,13 @@
         <v>47018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>102</v>
@@ -5852,13 +5864,13 @@
         <v>95972</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>494</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>13</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5885,13 @@
         <v>152943</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H24" s="7">
         <v>174</v>
@@ -5888,13 +5900,13 @@
         <v>121639</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>321</v>
@@ -5903,13 +5915,13 @@
         <v>274582</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5936,13 @@
         <v>110967</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="H25" s="7">
         <v>123</v>
@@ -5939,13 +5951,13 @@
         <v>95536</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>508</v>
+        <v>279</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
@@ -5954,13 +5966,13 @@
         <v>206503</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5987,13 @@
         <v>54330</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>29</v>
+        <v>515</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
@@ -5993,10 +6005,10 @@
         <v>57</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>327</v>
+        <v>516</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M26" s="7">
         <v>121</v>
@@ -6005,13 +6017,13 @@
         <v>120917</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>518</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>515</v>
+        <v>287</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,7 +6079,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6701-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6701-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46112FE2-4B8E-423E-9C80-67EE4DC28C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15A2F63A-3B5A-4703-AD6A-043511CA2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{304A35DB-EF28-47CF-B28A-2896F572CC97}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{52DBD5EA-B49A-4F9A-B8E9-84CC61E3B080}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="518">
   <si>
     <t>Población según si tienen que trabajar muy rápido en 2012 (Tasa respuesta: 33,96%)</t>
   </si>
@@ -1123,481 +1123,475 @@
     <t>Población según si tienen que trabajar muy rápido en 2023 (Tasa respuesta: 10,37%)</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
   <si>
     <t>6,62%</t>
   </si>
   <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>15,88%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B062710-8AA8-4CFF-B4F2-DA9F8861FBAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AB3CA6-45F5-4F27-AA36-E573CCE9D00B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3372,7 +3366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16139E7E-2139-4666-888C-9EB5C2C0F899}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C66009-214D-4466-89CD-C4DD0C0B5B87}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4702,7 +4696,7 @@
         <v>2329</v>
       </c>
       <c r="N27" s="7">
-        <v>2452238</v>
+        <v>2452239</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4735,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4B95FE-DD3D-48C5-9BCE-F3EBD34447EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECF69F3-4FA4-4591-8DAC-5E72381766E4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4856,25 +4850,25 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>4308</v>
+        <v>4171</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>1515</v>
+        <v>1373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>364</v>
@@ -4886,7 +4880,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>5823</v>
+        <v>5544</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>366</v>
@@ -4895,7 +4889,7 @@
         <v>367</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,46 +4901,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>900</v>
+        <v>806</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>2618</v>
+        <v>2360</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>3518</v>
+        <v>3166</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4958,46 +4952,46 @@
         <v>16</v>
       </c>
       <c r="D6" s="7">
-        <v>18231</v>
+        <v>18847</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>6571</v>
+        <v>5939</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
       </c>
       <c r="N6" s="7">
-        <v>24802</v>
+        <v>24786</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5003,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>6965</v>
+        <v>6123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>385</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>386</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>387</v>
@@ -5024,31 +5018,31 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>5311</v>
+        <v>4526</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>388</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
       </c>
       <c r="N7" s="7">
-        <v>12276</v>
+        <v>10649</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,46 +5054,46 @@
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>2984</v>
+        <v>2995</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>4296</v>
+        <v>4005</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>7279</v>
+        <v>6999</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,7 +5105,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="7">
-        <v>33387</v>
+        <v>32942</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -5126,7 +5120,7 @@
         <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>20311</v>
+        <v>18203</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5141,7 +5135,7 @@
         <v>66</v>
       </c>
       <c r="N9" s="7">
-        <v>53698</v>
+        <v>51145</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5164,46 +5158,46 @@
         <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>80302</v>
+        <v>271561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H10" s="7">
         <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>22397</v>
+        <v>20542</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>102699</v>
+        <v>292103</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,46 +5209,46 @@
         <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>34069</v>
+        <v>33026</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>24525</v>
+        <v>22047</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>412</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="7">
+        <v>60</v>
+      </c>
+      <c r="N11" s="7">
+        <v>55073</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="M11" s="7">
-        <v>60</v>
-      </c>
-      <c r="N11" s="7">
-        <v>58593</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,46 +5260,46 @@
         <v>94</v>
       </c>
       <c r="D12" s="7">
-        <v>94948</v>
+        <v>93760</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H12" s="7">
         <v>108</v>
       </c>
       <c r="I12" s="7">
-        <v>76344</v>
+        <v>70833</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M12" s="7">
         <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>171292</v>
+        <v>164593</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5317,7 +5311,7 @@
         <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>82441</v>
+        <v>75643</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>425</v>
@@ -5332,7 +5326,7 @@
         <v>96</v>
       </c>
       <c r="I13" s="7">
-        <v>77022</v>
+        <v>69581</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>428</v>
@@ -5347,16 +5341,16 @@
         <v>165</v>
       </c>
       <c r="N13" s="7">
-        <v>159464</v>
+        <v>145224</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,28 +5362,28 @@
         <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>39188</v>
+        <v>37814</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
       </c>
       <c r="I14" s="7">
-        <v>53012</v>
+        <v>48099</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>438</v>
@@ -5398,7 +5392,7 @@
         <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>92199</v>
+        <v>85913</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>439</v>
@@ -5419,7 +5413,7 @@
         <v>246</v>
       </c>
       <c r="D15" s="7">
-        <v>330948</v>
+        <v>511804</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5434,7 +5428,7 @@
         <v>332</v>
       </c>
       <c r="I15" s="7">
-        <v>253300</v>
+        <v>231102</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5449,7 +5443,7 @@
         <v>578</v>
       </c>
       <c r="N15" s="7">
-        <v>584248</v>
+        <v>742906</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5472,7 +5466,7 @@
         <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>44950</v>
+        <v>42736</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>442</v>
@@ -5487,13 +5481,13 @@
         <v>37</v>
       </c>
       <c r="I16" s="7">
-        <v>33283</v>
+        <v>30247</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>445</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>365</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>446</v>
@@ -5502,7 +5496,7 @@
         <v>76</v>
       </c>
       <c r="N16" s="7">
-        <v>78233</v>
+        <v>72983</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>447</v>
@@ -5523,46 +5517,46 @@
         <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>13986</v>
+        <v>13281</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>450</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>452</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>19875</v>
+        <v>18181</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
       </c>
       <c r="N17" s="7">
-        <v>33861</v>
+        <v>31463</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,46 +5568,46 @@
         <v>37</v>
       </c>
       <c r="D18" s="7">
-        <v>39763</v>
+        <v>38170</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
       </c>
       <c r="I18" s="7">
-        <v>38724</v>
+        <v>36698</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M18" s="7">
         <v>92</v>
       </c>
       <c r="N18" s="7">
-        <v>78487</v>
+        <v>74868</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,28 +5619,28 @@
         <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>21561</v>
+        <v>20434</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>13203</v>
+        <v>12106</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>470</v>
+        <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>471</v>
@@ -5655,7 +5649,7 @@
         <v>38</v>
       </c>
       <c r="N19" s="7">
-        <v>34764</v>
+        <v>32539</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>472</v>
@@ -5676,7 +5670,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>12159</v>
+        <v>10594</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>475</v>
@@ -5691,7 +5685,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="7">
-        <v>9279</v>
+        <v>8469</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>478</v>
@@ -5700,22 +5694,22 @@
         <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>480</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>21438</v>
+        <v>19063</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>481</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,7 +5721,7 @@
         <v>116</v>
       </c>
       <c r="D21" s="7">
-        <v>132419</v>
+        <v>125215</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5742,7 +5736,7 @@
         <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>114363</v>
+        <v>105701</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5757,7 +5751,7 @@
         <v>262</v>
       </c>
       <c r="N21" s="7">
-        <v>246782</v>
+        <v>230916</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5780,46 +5774,46 @@
         <v>69</v>
       </c>
       <c r="D22" s="7">
-        <v>129560</v>
+        <v>318468</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H22" s="7">
         <v>75</v>
       </c>
       <c r="I22" s="7">
-        <v>57195</v>
+        <v>52162</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>144</v>
       </c>
       <c r="N22" s="7">
-        <v>186755</v>
+        <v>370630</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,46 +5825,46 @@
         <v>42</v>
       </c>
       <c r="D23" s="7">
-        <v>48954</v>
+        <v>47114</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>60</v>
+      </c>
+      <c r="I23" s="7">
+        <v>42588</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="H23" s="7">
-        <v>60</v>
-      </c>
-      <c r="I23" s="7">
-        <v>47018</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="M23" s="7">
         <v>102</v>
       </c>
       <c r="N23" s="7">
-        <v>95972</v>
+        <v>89702</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>494</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,46 +5876,46 @@
         <v>147</v>
       </c>
       <c r="D24" s="7">
-        <v>152943</v>
+        <v>150776</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="H24" s="7">
         <v>174</v>
       </c>
       <c r="I24" s="7">
-        <v>121639</v>
+        <v>113470</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>503</v>
+        <v>256</v>
       </c>
       <c r="M24" s="7">
         <v>321</v>
       </c>
       <c r="N24" s="7">
-        <v>274582</v>
+        <v>264247</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>505</v>
+        <v>73</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,46 +5927,46 @@
         <v>95</v>
       </c>
       <c r="D25" s="7">
-        <v>110967</v>
+        <v>102200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H25" s="7">
         <v>123</v>
       </c>
       <c r="I25" s="7">
-        <v>95536</v>
+        <v>86213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>279</v>
+        <v>507</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
       </c>
       <c r="N25" s="7">
-        <v>206503</v>
+        <v>188413</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>512</v>
+        <v>228</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>56</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,46 +5978,46 @@
         <v>42</v>
       </c>
       <c r="D26" s="7">
-        <v>54330</v>
+        <v>51403</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>511</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>79</v>
       </c>
       <c r="I26" s="7">
-        <v>66587</v>
+        <v>60572</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>57</v>
+        <v>513</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M26" s="7">
         <v>121</v>
       </c>
       <c r="N26" s="7">
-        <v>120917</v>
+        <v>111975</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>518</v>
+        <v>313</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>287</v>
+        <v>516</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,7 +6029,7 @@
         <v>395</v>
       </c>
       <c r="D27" s="7">
-        <v>496754</v>
+        <v>669961</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6050,7 +6044,7 @@
         <v>511</v>
       </c>
       <c r="I27" s="7">
-        <v>387974</v>
+        <v>355005</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6065,7 +6059,7 @@
         <v>906</v>
       </c>
       <c r="N27" s="7">
-        <v>884728</v>
+        <v>1024967</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
